--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Vungle.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/Vungle.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>class_name</t>
   </si>
@@ -38,48 +38,6 @@
   </si>
   <si>
     <t>labelAPI</t>
-  </si>
-  <si>
-    <t>com.vungle.warren.AdConfig.AdSize</t>
-  </si>
-  <si>
-    <t>com.vungle.warren.Vungle.Consent</t>
-  </si>
-  <si>
-    <t>com.vungle.warren.VungleSettings.Builder</t>
-  </si>
-  <si>
-    <t>GDPR Consent Status</t>
-  </si>
-  <si>
-    <t>Builder for VungleSettings</t>
-  </si>
-  <si>
-    <t>valueOf(java.lang.String name)</t>
-  </si>
-  <si>
-    <t>setAndroidIdOptOut(boolean disabled)</t>
-  </si>
-  <si>
-    <t>Returns the enum constant of this type with the specified name.</t>
-  </si>
-  <si>
-    <t>Enables/disables automatic fallback collection of Android ID in case ifa is not available.</t>
-  </si>
-  <si>
-    <t>static AdConfig.AdSize</t>
-  </si>
-  <si>
-    <t>static Vungle.Consent</t>
-  </si>
-  <si>
-    <t>VungleSettings.Builder</t>
-  </si>
-  <si>
-    <t>{'the specified name'}</t>
-  </si>
-  <si>
-    <t>{'ID'}</t>
   </si>
 </sst>
 </file>
@@ -437,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,81 +427,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
